--- a/DOM_Banner/output/dept_banner/Lauren Estep_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Lauren Estep_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,351 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Saif Mashaqi, Michael William, Stuart F. Quan, Daniel Combs, Lauren Estep, Shivali Patel, Jyotsna Sahni, Sairam Parthasarathy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5038604569", "https://openalex.org/A5009715663", "https://openalex.org/A5063076862", "https://openalex.org/A5073874574", "https://openalex.org/A5066376158", "https://openalex.org/A5062299099", "https://openalex.org/A5054308863", "https://openalex.org/A5020095687"), au_display_name = c("Saif Mashaqi", "Michael William", "Stuart F. Quan", "Daniel Combs", "Lauren Estep", "Shivali Patel", "Jyotsna Sahni", "Sairam Parthasarathy"), au_orcid = c("https://orcid.org/0000-0003-3978-5338", 
-NA, "https://orcid.org/0000-0002-9474-7679", "https://orcid.org/0000-0003-3821-3629", NA, "https://orcid.org/0000-0003-0900-043X", NA, "https://orcid.org/0000-0002-1128-3005"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States", 
-"Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States", "Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States", 
-"Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States", "Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States", "Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I1283280774", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210154614", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "Brigham and Women's Hospital", "University of Arizona", "University of Arizona", "University of Arizona", "SleepMed", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/04b6nzv94", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/04bxj6908", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "healthcare", "education", "education", "education", "healthcare", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I1283280774, https://openalex.org/I48633490", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210154614", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sleep-disordered breathing (obstructive and central sleep apnea) are common in patients with heart failure with reduced ejection fraction. Herein, we report a 69-year-old patient with a history of severe heart failure and refractory ventricular arrhythmia who was diagnosed with a moderate degree of obstructive and central sleep apnea with Cheyne Stokes breathing. He underwent a successful implantation of left ventricular assist device. Our patient had a complete resolution of both obstructive and central sleep apnea 60 days post-LVAD implantation as confirmed by home sleep apnea test.</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>Frontiers in Sleep</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frontiers in Sleep</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4387281408</t>
+          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2813-2890</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/frsle.2023.1228038/pdf?isPublishedV2=False</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/articles/10.3389/frsle.2023.1228038/pdf?isPublishedV2=False</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4386513413</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4386513413", doi = "https://doi.org/10.3389/frsle.2023.1228038")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/frsle.2023.1228038</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1545241942", "https://openalex.org/W1581702364", "https://openalex.org/W2008002602", "https://openalex.org/W2048202418", "https://openalex.org/W2061096137", "https://openalex.org/W2159851129", "https://openalex.org/W2171850900", "https://openalex.org/W2285452916", "https://openalex.org/W2511437853", "https://openalex.org/W2759943631", "https://openalex.org/W2967833202", "https://openalex.org/W4205406234", "https://openalex.org/W4206831265", "https://openalex.org/W4249348651", 
-"https://openalex.org/W4280557361", "https://openalex.org/W4384023364")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2111868371", "https://openalex.org/W3143307504", "https://openalex.org/W2086917237", "https://openalex.org/W2326687458", "https://openalex.org/W2896421037", "https://openalex.org/W2064783368", "https://openalex.org/W2007931312", "https://openalex.org/W2980308468", "https://openalex.org/W2996728683", "https://openalex.org/W2051383656")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Lauren Estep_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Lauren Estep_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Division of Sleep and Circadian Disorders, Division of Sleep Medicine, Brigham and Women's Hospital, Harvard Medical School, Boston, MA, United States; Division of Pulmonary and Sleep Medicine, Department of Pediatrics, UAHS Center for Sleep and Circadian Sciences, University of Arizona, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States; Department of Sleep Medicine, Swan Sleep Medicine, Tucson, AZ, United States; Department of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386513413</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Case report: A case of complete resolution of obstructive and central sleep apnea with Cheyne Stokes breathing in a patient with heart failure 60 days post-left ventricular assist device implantation</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Sleep</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/frsle.2023.1228038</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
